--- a/huguanmiao/WoniuBoss-工作日报（胡官淼）.xlsx
+++ b/huguanmiao/WoniuBoss-工作日报（胡官淼）.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>日期</t>
   </si>
@@ -264,8 +264,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">1.今天学习了自动关联，analysis中的图表的分析及对应的负载模型，集合点代码的添加学习，running vuser的设置等
+2.今天开始进行接口测试的脚本编写，我分到的模块是培训资源，财务管理，企业客户，就业管理这四个模块，因电脑故障问题，仅将培训资源的动作完成了一半，明日将继续进行脚本的编写
+3.将woniuboss3.5项目配置完成
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>1.继续学习新的内容
 2.继续进行脚本的编写</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.继续学习新的内容
+2.继续进行接口脚本的编写</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.今天学习了自动化框架，理解框架的基础概念，评估框架的标准与设计思路，分层思想和图像识别模版匹配等概念
+2.今天继续编写了接口测试脚本的培训资源模块，现已经该模块动作等全部编写完成，明天开始接替执行对3.5版本的测试用例
+3.完成作业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.继续学习新的内容
+2.进行woniuboss3.5的手工测试</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -384,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -412,6 +435,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -715,13 +741,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -958,10 +984,94 @@
         <v>35</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D18" s="4"/>
       <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" ht="135.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="5">
+        <v>43915</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="1:7" ht="147" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="5">
+        <v>43916</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="5"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="5"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="5"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="5"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="5"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="5"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="5"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="5"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="5"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/huguanmiao/WoniuBoss-工作日报（胡官淼）.xlsx
+++ b/huguanmiao/WoniuBoss-工作日报（胡官淼）.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>日期</t>
   </si>
@@ -289,6 +289,43 @@
   <si>
     <t>1.继续学习新的内容
 2.进行woniuboss3.5的手工测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成周考题目
+2.继续用例的执行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.今天主要学习了图像识别算法思路以及代码实现思路，课后进行了自我练习，完成作业
+2.今天因为开始忙于进行了周考题目测试，未进行测试用例的执行，计划明天继续执行
+3.周考题目还未完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.今天上午继续进行了周考题目的编写，十二点之前提交成功
+2.下午进行了测试用例的执行，共执行了100条左右，未发现什么问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.继续脚本的编写</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.继续学习新的知识
+2.继续进行接口脚本的编写</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.今天继续学习了图像识别的自有算法代码思路，以及代码的实现，课后完成练习
+2.今天继续执行测试用例，今天大概执行了120条左右，未发现什么大的问题
+3.未完全完成今日的作业，因电脑问题，换了四种截图工具截出的图片均无法识别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.今天学习了opencv库的知识和opencv图像识别的代码思路以及代码的实现以及移动端的图像识别应用
+2.今日项目完成了就业管理的技术面试和就业管理模块，目前已完成，有些功能还未调试完成
+3.今日作业因图片问题，还是未能成功完成测试</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -427,6 +464,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -435,9 +475,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -747,7 +784,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -759,12 +796,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -993,79 +1030,103 @@
       <c r="A19" s="5">
         <v>43915</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="10"/>
+      <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:7" ht="147" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5">
         <v>43916</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="10"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="5"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="5"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="5"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="5"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="5">
+        <v>43917</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" ht="129.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="5">
+        <v>43918</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:7" ht="162" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="5">
+        <v>43920</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:7" ht="100.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="5">
+        <v>43921</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="5"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="5"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="5"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
